--- a/PROJET/CRA/CRA-ETL_13-10-10.xlsx
+++ b/PROJET/CRA/CRA-ETL_13-10-10.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8130" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="18855" windowHeight="8130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <sheet name="20" sheetId="21" r:id="rId20"/>
     <sheet name="21" sheetId="22" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="26">
   <si>
     <t>Total</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Romain GIRARD</t>
+  </si>
+  <si>
+    <t>Installation du logiciel Talend</t>
+  </si>
+  <si>
+    <t>Prise en main avec un exemple de Demo sur une base MySQL</t>
+  </si>
+  <si>
+    <t>Connexion sur la base Oracle du projet Darties</t>
+  </si>
+  <si>
+    <t>Essai d'un Job sur Talend avec base Oracle</t>
   </si>
 </sst>
 </file>
@@ -586,20 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,6 +616,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,7 +999,7 @@
       <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -997,8 +1012,8 @@
         <v>14</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -1298,11 +1313,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -1674,11 +1689,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -2050,11 +2065,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -2426,11 +2441,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -2802,11 +2817,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -3178,11 +3193,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -3554,11 +3569,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -3930,11 +3945,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -4306,11 +4321,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -4682,11 +4697,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -5058,11 +5073,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -5118,10 +5133,10 @@
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="40" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="5"/>
@@ -5136,8 +5151,8 @@
         <v>14</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
@@ -5408,33 +5423,33 @@
       <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5474,11 +5489,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -5850,11 +5865,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -6208,8 +6223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6226,11 +6241,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -6286,9 +6301,6 @@
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="2"/>
@@ -6585,7 +6597,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6602,11 +6614,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -6657,17 +6669,25 @@
     </row>
     <row r="4" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
@@ -6729,7 +6749,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="10">
         <f>SUM(H4:H8)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
@@ -6960,8 +6980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6978,11 +6998,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -7033,17 +7053,21 @@
     </row>
     <row r="4" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="69" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
@@ -7105,7 +7129,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="10">
         <f>SUM(H4:H8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
@@ -7354,11 +7378,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -7730,11 +7754,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -8106,11 +8130,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
@@ -8482,11 +8506,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="15" t="str">
         <f ca="1">RIGHT(CELL("nomfichier",A1),LEN(CELL("nomfichier",A1))-SEARCH("]",
 CELL("nomfichier",A1)))</f>
